--- a/exec/enter_vpn_windows/matrix_enter/connection page/connection_page.xlsx
+++ b/exec/enter_vpn_windows/matrix_enter/connection page/connection_page.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40400DD3-5C5D-4241-B5B8-86C0ED943E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A14BAF-FC21-4273-8CE3-FA9025CB96BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>T0028</t>
+  </si>
+  <si>
+    <t>T0029</t>
+  </si>
+  <si>
+    <t>T0030</t>
+  </si>
+  <si>
+    <t>T0031</t>
   </si>
 </sst>
 </file>
@@ -232,7 +241,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -315,6 +324,18 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -332,7 +353,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,13 +368,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -364,7 +385,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11153DFD-F21F-48A1-9A10-D447C573B291}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60F3A94-8565-40C7-913C-105DB14403E5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -414,13 +435,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -431,7 +452,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8979D53-848D-45E5-AEDB-0B7ECCAED35E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADE3A54-6108-469E-A2A0-E3E9DE6B9482}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -481,13 +502,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -498,7 +519,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD65FD0-6AE6-4010-9F7D-7FE0167415A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56188DE7-539A-4EFA-A19C-F1C6F3FC3E81}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -548,13 +569,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -565,7 +586,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611286E5-C07E-48CD-9804-9D6E6C60623F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8EBEC2-DB11-4B0F-95A6-7EF3251D9DC4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -615,13 +636,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -632,7 +653,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFE816C-1EEF-4A71-BD33-EFC8C900CAA2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F82084-6813-42C1-A885-419C63CF384F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -682,13 +703,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -699,7 +720,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B00AD9C-347A-4ED9-8257-4B7BADC9B874}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0758024-D42C-4999-A8A1-0DC439675E36}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -749,13 +770,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -766,7 +787,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4EB1ED9-6B11-46FD-B3E2-21D179E06F8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB81F24-D21D-40A4-83A8-EACABF44374A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -816,13 +837,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -833,7 +854,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FE68C8-4AFF-4965-8B6F-C5EA5612F66D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D190C470-7E2A-4502-B4CB-4301719EFD04}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -883,13 +904,13 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -900,7 +921,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB95988D-DBDB-4817-8CED-7425FE66D429}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4037FD3B-9BE2-446B-924A-963C9C987EA5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -950,13 +971,13 @@
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -967,7 +988,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41AB4D2-D243-4C18-BDF2-8678D8F40FBC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E294E91B-6B01-423D-9B63-40452DF2A9DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1017,13 +1038,13 @@
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1034,7 +1055,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D9FC22-DE5F-40C7-95A7-9C3F56E2E011}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB19EAB3-A953-40ED-A115-28F07E94F02A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1084,13 +1105,13 @@
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1101,7 +1122,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C3A29D-F4E3-4040-BEB9-E33B83CC9A58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D51E6A-41A8-45B4-B87B-188334BA5236}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1151,13 +1172,13 @@
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1168,7 +1189,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FD54B5-A2CC-405D-9A5C-BDB9AB7C82C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3F076E-64C2-4F09-AB6F-5D7B5F98F520}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1218,13 +1239,13 @@
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1235,7 +1256,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38A2DFB-0067-4F2F-A93B-3820BED11C3A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299DEC58-629E-4A4A-92DB-5C630D19BBD4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1285,13 +1306,13 @@
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1302,7 +1323,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D66FC82-D49C-43B5-A9C6-07A0ABDD40C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD04FF3E-1A8F-4AB2-B3D2-74F3B75ED180}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1352,13 +1373,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1369,7 +1390,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A2B933-7BD6-411B-961E-3D18C998D3AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2FDBB3-1B28-4D7D-90EB-71DA83B8183E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1419,13 +1440,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1436,7 +1457,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0053721-4834-48FA-BEAA-1652EBF44379}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCAFCC1-2507-4B97-A99B-9CB1CCEF14A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1486,13 +1507,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1503,7 +1524,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20193244-B2F5-470E-83EA-FFE3D936F581}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D932FCBA-F8E1-42BB-85E5-D75BD817F846}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1553,13 +1574,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1570,7 +1591,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B8E1BB-52D2-4516-948B-74882A4493D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564EFF6D-AC8B-4F2B-A615-F5DECE1BE2D7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1620,13 +1641,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1637,7 +1658,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E97AB4-08A7-4885-8A61-DAAC4F6E86D6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0AE5CC-9745-4F61-BC08-967ED89C002F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1687,13 +1708,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1704,7 +1725,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EFD54B-21DC-4118-B8BC-C676BA311CBA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12E8E9A-810D-4435-B1A3-7F3F62C7E417}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1754,13 +1775,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1771,7 +1792,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC002D2A-B574-45CF-AB8C-27D3247B17F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BE7A55-CE09-4FE1-B405-59C785C5297C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1821,13 +1842,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1838,7 +1859,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92841D13-8EC1-4AEE-81D8-2015DCC5CBA7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23F5E01-3D9B-40B5-8DF7-80EEEFA50293}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1888,13 +1909,13 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1905,7 +1926,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC4E3CF-8E21-4E20-9D9A-B3FC3A08824B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61791B07-6C25-4EF5-BC80-D1A1ADAD66F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1955,13 +1976,13 @@
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1972,7 +1993,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46721C65-C905-46C1-AFB8-80FE202D1DE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABC98EA-3CE0-4D80-9D73-F1287DD73857}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2022,13 +2043,13 @@
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2039,7 +2060,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A60DC89-B1CC-4D89-BBC4-AF5A12D2B7B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A02B82-E168-4EB8-9B15-3E46B9B030F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2089,13 +2110,13 @@
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2106,7 +2127,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A447B5-D1F8-4C5B-AE8A-CFCC8674CFF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435835D5-9D41-4252-BD92-FA8AB64CB690}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2156,13 +2177,13 @@
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2173,7 +2194,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D3AFDB-F59D-4EB5-A2CA-BE43C5A9263D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C365A767-7D72-4A2B-B740-7AE56819EC16}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2223,13 +2244,13 @@
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2240,7 +2261,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DDDDD3-F5A5-4157-B644-949B92F456C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89EE104-9966-49DD-9CB1-9000AC7439AB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2290,13 +2311,13 @@
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2307,7 +2328,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDC2625-3A5D-4179-B176-B301ADA06E18}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31C1A10-A539-42EC-BEB8-CE9A5D258545}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2351,87 +2372,20 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AAFE8F-A876-4774-B906-0CA50166B78F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
+        <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F36BE6-0EF1-4CA5-A09F-C76968CFF410}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC25BD05-51C5-439E-B79A-9F2BB3E26D38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2408,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2505075" y="1800225"/>
+          <a:off x="4972050" y="628650"/>
           <a:ext cx="619125" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2478,26 +2432,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
+                  <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44855F4-95E8-4B89-B08F-F71C46DFD686}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BF7DE7-8674-4325-8D74-32CEEBE52804}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2538,6 +2492,269 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C61AD0-48D2-4757-9DD3-816C821CEE2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65D49AA-C445-4FC4-ADFB-317C42A992F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F473F0-2421-48E4-BBDE-AB809344B641}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="323850"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79476AD-0802-4EFD-A63C-A4C2F38EEE60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2807,145 +3024,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O6"/>
+  <dimension ref="B1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3">
-        <v>45313</v>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>45323</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
-    <row r="3" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,13 +3190,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2984,13 +3212,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3006,13 +3234,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3028,13 +3256,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3050,13 +3278,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3072,13 +3300,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3094,13 +3322,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3116,13 +3344,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3138,13 +3366,13 @@
                   <from>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3160,13 +3388,13 @@
                   <from>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3182,13 +3410,13 @@
                   <from>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3204,13 +3432,13 @@
                   <from>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3226,13 +3454,13 @@
                   <from>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3248,13 +3476,13 @@
                   <from>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3270,13 +3498,13 @@
                   <from>
                     <xdr:col>14</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3292,13 +3520,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3314,13 +3542,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3336,13 +3564,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3358,13 +3586,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3380,13 +3608,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3402,13 +3630,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3424,13 +3652,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3446,13 +3674,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3468,13 +3696,13 @@
                   <from>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3490,13 +3718,13 @@
                   <from>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3512,13 +3740,13 @@
                   <from>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3534,13 +3762,13 @@
                   <from>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3556,13 +3784,13 @@
                   <from>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3578,13 +3806,13 @@
                   <from>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3600,13 +3828,13 @@
                   <from>
                     <xdr:col>14</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3622,13 +3850,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3644,14 +3872,80 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
